--- a/notebooks/output/Hou_bsize.xlsx
+++ b/notebooks/output/Hou_bsize.xlsx
@@ -19,6 +19,42 @@
     <t>name</t>
   </si>
   <si>
+    <t>u_tot_21E</t>
+  </si>
+  <si>
+    <t>u_tot_21M</t>
+  </si>
+  <si>
+    <t>u_tot_21C</t>
+  </si>
+  <si>
+    <t>u_24_21E</t>
+  </si>
+  <si>
+    <t>u_24_21M</t>
+  </si>
+  <si>
+    <t>u_24_21C</t>
+  </si>
+  <si>
+    <t>u_1_21E</t>
+  </si>
+  <si>
+    <t>u_1_21M</t>
+  </si>
+  <si>
+    <t>u_1_21C</t>
+  </si>
+  <si>
+    <t>u_520_21E</t>
+  </si>
+  <si>
+    <t>u_520_21M</t>
+  </si>
+  <si>
+    <t>u_520_21C</t>
+  </si>
+  <si>
     <t>u_o20_21E</t>
   </si>
   <si>
@@ -28,24 +64,6 @@
     <t>u_o20_21C</t>
   </si>
   <si>
-    <t>u_520_21E</t>
-  </si>
-  <si>
-    <t>u_520_21M</t>
-  </si>
-  <si>
-    <t>u_520_21C</t>
-  </si>
-  <si>
-    <t>u_24_21E</t>
-  </si>
-  <si>
-    <t>u_24_21M</t>
-  </si>
-  <si>
-    <t>u_24_21C</t>
-  </si>
-  <si>
     <t>u_oth_21E</t>
   </si>
   <si>
@@ -53,24 +71,6 @@
   </si>
   <si>
     <t>u_oth_21C</t>
-  </si>
-  <si>
-    <t>u_1_21E</t>
-  </si>
-  <si>
-    <t>u_1_21M</t>
-  </si>
-  <si>
-    <t>u_1_21C</t>
-  </si>
-  <si>
-    <t>u_tot_21E</t>
-  </si>
-  <si>
-    <t>u_tot_21M</t>
-  </si>
-  <si>
-    <t>u_tot_21C</t>
   </si>
   <si>
     <t>Alhambra</t>
@@ -549,58 +549,58 @@
         <v>19</v>
       </c>
       <c r="B2">
+        <v>52655</v>
+      </c>
+      <c r="C2">
+        <v>1562.444239005028</v>
+      </c>
+      <c r="D2">
+        <v>1.803844130765793</v>
+      </c>
+      <c r="E2">
+        <v>4300</v>
+      </c>
+      <c r="F2">
+        <v>577.5794317667484</v>
+      </c>
+      <c r="G2">
+        <v>8.165398059896068</v>
+      </c>
+      <c r="H2">
+        <v>29728</v>
+      </c>
+      <c r="I2">
+        <v>1276.070139138127</v>
+      </c>
+      <c r="J2">
+        <v>2.609413779438392</v>
+      </c>
+      <c r="K2">
+        <v>8741</v>
+      </c>
+      <c r="L2">
+        <v>853.0392722495254</v>
+      </c>
+      <c r="M2">
+        <v>5.932558141431971</v>
+      </c>
+      <c r="N2">
         <v>8573</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>697.8108626268296</v>
       </c>
-      <c r="D2">
+      <c r="P2">
         <v>4.94810605734218</v>
       </c>
-      <c r="E2">
-        <v>8741</v>
-      </c>
-      <c r="F2">
-        <v>853.0392722495254</v>
-      </c>
-      <c r="G2">
-        <v>5.932558141431971</v>
-      </c>
-      <c r="H2">
-        <v>4300</v>
-      </c>
-      <c r="I2">
-        <v>577.5794317667484</v>
-      </c>
-      <c r="J2">
-        <v>8.165398059896068</v>
-      </c>
-      <c r="K2">
+      <c r="Q2">
         <v>1313</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>305.1081775370827</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>14.12613067534071</v>
-      </c>
-      <c r="N2">
-        <v>29728</v>
-      </c>
-      <c r="O2">
-        <v>1276.070139138127</v>
-      </c>
-      <c r="P2">
-        <v>2.609413779438392</v>
-      </c>
-      <c r="Q2">
-        <v>52655</v>
-      </c>
-      <c r="R2">
-        <v>1562.444239005028</v>
-      </c>
-      <c r="S2">
-        <v>1.803844130765793</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -608,58 +608,58 @@
         <v>20</v>
       </c>
       <c r="B3">
+        <v>71371</v>
+      </c>
+      <c r="C3">
+        <v>1957.484865841879</v>
+      </c>
+      <c r="D3">
+        <v>1.667288401125247</v>
+      </c>
+      <c r="E3">
+        <v>4973</v>
+      </c>
+      <c r="F3">
+        <v>670.3454333401548</v>
+      </c>
+      <c r="G3">
+        <v>8.194345921962242</v>
+      </c>
+      <c r="H3">
+        <v>41716</v>
+      </c>
+      <c r="I3">
+        <v>1496.202192218685</v>
+      </c>
+      <c r="J3">
+        <v>2.180327465730329</v>
+      </c>
+      <c r="K3">
+        <v>11182</v>
+      </c>
+      <c r="L3">
+        <v>996.4226011085858</v>
+      </c>
+      <c r="M3">
+        <v>5.416991817116989</v>
+      </c>
+      <c r="N3">
         <v>12309</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1120.230779794949</v>
       </c>
-      <c r="D3">
+      <c r="P3">
         <v>5.532466938812652</v>
       </c>
-      <c r="E3">
-        <v>11182</v>
-      </c>
-      <c r="F3">
-        <v>996.4226011085858</v>
-      </c>
-      <c r="G3">
-        <v>5.416991817116989</v>
-      </c>
-      <c r="H3">
-        <v>4973</v>
-      </c>
-      <c r="I3">
-        <v>670.3454333401548</v>
-      </c>
-      <c r="J3">
-        <v>8.194345921962242</v>
-      </c>
-      <c r="K3">
+      <c r="Q3">
         <v>1191</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>284.8525934584412</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>14.53926706930353</v>
-      </c>
-      <c r="N3">
-        <v>41716</v>
-      </c>
-      <c r="O3">
-        <v>1496.202192218685</v>
-      </c>
-      <c r="P3">
-        <v>2.180327465730329</v>
-      </c>
-      <c r="Q3">
-        <v>71371</v>
-      </c>
-      <c r="R3">
-        <v>1957.484865841879</v>
-      </c>
-      <c r="S3">
-        <v>1.667288401125247</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,58 +667,58 @@
         <v>21</v>
       </c>
       <c r="B4">
+        <v>71196</v>
+      </c>
+      <c r="C4">
+        <v>2069.086513416005</v>
+      </c>
+      <c r="D4">
+        <v>1.766676992556705</v>
+      </c>
+      <c r="E4">
+        <v>3597</v>
+      </c>
+      <c r="F4">
+        <v>748.336154411906</v>
+      </c>
+      <c r="G4">
+        <v>12.64708355260431</v>
+      </c>
+      <c r="H4">
+        <v>52135</v>
+      </c>
+      <c r="I4">
+        <v>1754.488529458087</v>
+      </c>
+      <c r="J4">
+        <v>2.045762686429971</v>
+      </c>
+      <c r="K4">
+        <v>8721</v>
+      </c>
+      <c r="L4">
+        <v>811.0394565001138</v>
+      </c>
+      <c r="M4">
+        <v>5.653401034920174</v>
+      </c>
+      <c r="N4">
         <v>5925</v>
       </c>
-      <c r="C4">
+      <c r="O4">
         <v>930.2768405157682</v>
       </c>
-      <c r="D4">
+      <c r="P4">
         <v>9.544604830038789</v>
       </c>
-      <c r="E4">
-        <v>8721</v>
-      </c>
-      <c r="F4">
-        <v>811.0394565001138</v>
-      </c>
-      <c r="G4">
-        <v>5.653401034920174</v>
-      </c>
-      <c r="H4">
-        <v>3597</v>
-      </c>
-      <c r="I4">
-        <v>748.336154411906</v>
-      </c>
-      <c r="J4">
-        <v>12.64708355260431</v>
-      </c>
-      <c r="K4">
+      <c r="Q4">
         <v>818</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>301.695210435963</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>22.42070216749006</v>
-      </c>
-      <c r="N4">
-        <v>52135</v>
-      </c>
-      <c r="O4">
-        <v>1754.488529458087</v>
-      </c>
-      <c r="P4">
-        <v>2.045762686429971</v>
-      </c>
-      <c r="Q4">
-        <v>71196</v>
-      </c>
-      <c r="R4">
-        <v>2069.086513416005</v>
-      </c>
-      <c r="S4">
-        <v>1.766676992556705</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,58 +726,58 @@
         <v>22</v>
       </c>
       <c r="B5">
+        <v>42179</v>
+      </c>
+      <c r="C5">
+        <v>1466.905245746977</v>
+      </c>
+      <c r="D5">
+        <v>2.11416987529408</v>
+      </c>
+      <c r="E5">
+        <v>2503</v>
+      </c>
+      <c r="F5">
+        <v>387.6970466743331</v>
+      </c>
+      <c r="G5">
+        <v>9.415984628156439</v>
+      </c>
+      <c r="H5">
+        <v>31894</v>
+      </c>
+      <c r="I5">
+        <v>1371.69493693022</v>
+      </c>
+      <c r="J5">
+        <v>2.614463863161883</v>
+      </c>
+      <c r="K5">
+        <v>2945</v>
+      </c>
+      <c r="L5">
+        <v>504.3768432432242</v>
+      </c>
+      <c r="M5">
+        <v>10.41127547578399</v>
+      </c>
+      <c r="N5">
         <v>2401</v>
       </c>
-      <c r="C5">
+      <c r="O5">
         <v>437.1761658645174</v>
       </c>
-      <c r="D5">
+      <c r="P5">
         <v>11.06874582056153</v>
       </c>
-      <c r="E5">
-        <v>2945</v>
-      </c>
-      <c r="F5">
-        <v>504.3768432432242</v>
-      </c>
-      <c r="G5">
-        <v>10.41127547578399</v>
-      </c>
-      <c r="H5">
-        <v>2503</v>
-      </c>
-      <c r="I5">
-        <v>387.6970466743331</v>
-      </c>
-      <c r="J5">
-        <v>9.415984628156439</v>
-      </c>
-      <c r="K5">
+      <c r="Q5">
         <v>2436</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>415.5935514417903</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>10.37111891640065</v>
-      </c>
-      <c r="N5">
-        <v>31894</v>
-      </c>
-      <c r="O5">
-        <v>1371.69493693022</v>
-      </c>
-      <c r="P5">
-        <v>2.614463863161883</v>
-      </c>
-      <c r="Q5">
-        <v>42179</v>
-      </c>
-      <c r="R5">
-        <v>1466.905245746977</v>
-      </c>
-      <c r="S5">
-        <v>2.11416987529408</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -785,58 +785,58 @@
         <v>23</v>
       </c>
       <c r="B6">
+        <v>19240</v>
+      </c>
+      <c r="C6">
+        <v>927.773679298998</v>
+      </c>
+      <c r="D6">
+        <v>2.931372960647455</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>106.7567328087554</v>
+      </c>
+      <c r="G6">
+        <v>150.9249067770629</v>
+      </c>
+      <c r="H6">
+        <v>18556</v>
+      </c>
+      <c r="I6">
+        <v>930.2021285720647</v>
+      </c>
+      <c r="J6">
+        <v>3.047383156848684</v>
+      </c>
+      <c r="K6">
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <v>118.4483009586883</v>
+      </c>
+      <c r="M6">
+        <v>150.0105128656134</v>
+      </c>
+      <c r="N6">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="O6">
         <v>102.7861858422619</v>
       </c>
-      <c r="D6">
+      <c r="P6">
         <v>347.1333530640388</v>
       </c>
-      <c r="E6">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>118.4483009586883</v>
-      </c>
-      <c r="G6">
-        <v>150.0105128656134</v>
-      </c>
-      <c r="H6">
-        <v>43</v>
-      </c>
-      <c r="I6">
-        <v>106.7567328087554</v>
-      </c>
-      <c r="J6">
-        <v>150.9249067770629</v>
-      </c>
-      <c r="K6">
+      <c r="Q6">
         <v>575</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>208.6120801871263</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <v>22.05493116819096</v>
-      </c>
-      <c r="N6">
-        <v>18556</v>
-      </c>
-      <c r="O6">
-        <v>930.2021285720647</v>
-      </c>
-      <c r="P6">
-        <v>3.047383156848684</v>
-      </c>
-      <c r="Q6">
-        <v>19240</v>
-      </c>
-      <c r="R6">
-        <v>927.773679298998</v>
-      </c>
-      <c r="S6">
-        <v>2.931372960647455</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -844,58 +844,58 @@
         <v>24</v>
       </c>
       <c r="B7">
+        <v>73903</v>
+      </c>
+      <c r="C7">
+        <v>1839.068786098008</v>
+      </c>
+      <c r="D7">
+        <v>1.512759896020778</v>
+      </c>
+      <c r="E7">
+        <v>6245</v>
+      </c>
+      <c r="F7">
+        <v>718.3258313606716</v>
+      </c>
+      <c r="G7">
+        <v>6.992349686296603</v>
+      </c>
+      <c r="H7">
+        <v>36196</v>
+      </c>
+      <c r="I7">
+        <v>1392.023706694681</v>
+      </c>
+      <c r="J7">
+        <v>2.337868878514984</v>
+      </c>
+      <c r="K7">
+        <v>13120</v>
+      </c>
+      <c r="L7">
+        <v>1062.366697520211</v>
+      </c>
+      <c r="M7">
+        <v>4.922375164579525</v>
+      </c>
+      <c r="N7">
         <v>17141</v>
       </c>
-      <c r="C7">
+      <c r="O7">
         <v>1054.324902484998</v>
       </c>
-      <c r="D7">
+      <c r="P7">
         <v>3.73914586308906</v>
       </c>
-      <c r="E7">
-        <v>13120</v>
-      </c>
-      <c r="F7">
-        <v>1062.366697520211</v>
-      </c>
-      <c r="G7">
-        <v>4.922375164579525</v>
-      </c>
-      <c r="H7">
-        <v>6245</v>
-      </c>
-      <c r="I7">
-        <v>718.3258313606716</v>
-      </c>
-      <c r="J7">
-        <v>6.992349686296603</v>
-      </c>
-      <c r="K7">
+      <c r="Q7">
         <v>1201</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>363.0289244674589</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>18.37521034737814</v>
-      </c>
-      <c r="N7">
-        <v>36196</v>
-      </c>
-      <c r="O7">
-        <v>1392.023706694681</v>
-      </c>
-      <c r="P7">
-        <v>2.337868878514984</v>
-      </c>
-      <c r="Q7">
-        <v>73903</v>
-      </c>
-      <c r="R7">
-        <v>1839.068786098008</v>
-      </c>
-      <c r="S7">
-        <v>1.512759896020778</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -903,58 +903,58 @@
         <v>25</v>
       </c>
       <c r="B8">
+        <v>30081</v>
+      </c>
+      <c r="C8">
+        <v>1201.344663283606</v>
+      </c>
+      <c r="D8">
+        <v>2.427780682700994</v>
+      </c>
+      <c r="E8">
+        <v>3219</v>
+      </c>
+      <c r="F8">
+        <v>543.6680972799489</v>
+      </c>
+      <c r="G8">
+        <v>10.26708057081196</v>
+      </c>
+      <c r="H8">
+        <v>14572</v>
+      </c>
+      <c r="I8">
+        <v>892.149090679355</v>
+      </c>
+      <c r="J8">
+        <v>3.721794350490031</v>
+      </c>
+      <c r="K8">
+        <v>4253</v>
+      </c>
+      <c r="L8">
+        <v>540.5201198845423</v>
+      </c>
+      <c r="M8">
+        <v>7.725926628363061</v>
+      </c>
+      <c r="N8">
         <v>7469</v>
       </c>
-      <c r="C8">
+      <c r="O8">
         <v>713.0532939409228</v>
       </c>
-      <c r="D8">
+      <c r="P8">
         <v>5.803548640894403</v>
       </c>
-      <c r="E8">
-        <v>4253</v>
-      </c>
-      <c r="F8">
-        <v>540.5201198845423</v>
-      </c>
-      <c r="G8">
-        <v>7.725926628363061</v>
-      </c>
-      <c r="H8">
-        <v>3219</v>
-      </c>
-      <c r="I8">
-        <v>543.6680972799489</v>
-      </c>
-      <c r="J8">
-        <v>10.26708057081196</v>
-      </c>
-      <c r="K8">
+      <c r="Q8">
         <v>568</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>267.4640162713482</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>28.62537097813992</v>
-      </c>
-      <c r="N8">
-        <v>14572</v>
-      </c>
-      <c r="O8">
-        <v>892.149090679355</v>
-      </c>
-      <c r="P8">
-        <v>3.721794350490031</v>
-      </c>
-      <c r="Q8">
-        <v>30081</v>
-      </c>
-      <c r="R8">
-        <v>1201.344663283606</v>
-      </c>
-      <c r="S8">
-        <v>2.427780682700994</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -962,58 +962,58 @@
         <v>26</v>
       </c>
       <c r="B9">
+        <v>25258</v>
+      </c>
+      <c r="C9">
+        <v>877.5670914522718</v>
+      </c>
+      <c r="D9">
+        <v>2.112104820386792</v>
+      </c>
+      <c r="E9">
+        <v>3856</v>
+      </c>
+      <c r="F9">
+        <v>485.6727293147105</v>
+      </c>
+      <c r="G9">
+        <v>7.65668518512515</v>
+      </c>
+      <c r="H9">
+        <v>10977</v>
+      </c>
+      <c r="I9">
+        <v>607.0313006756736</v>
+      </c>
+      <c r="J9">
+        <v>3.361719852898689</v>
+      </c>
+      <c r="K9">
+        <v>3634</v>
+      </c>
+      <c r="L9">
+        <v>468.6544569296232</v>
+      </c>
+      <c r="M9">
+        <v>7.839744810153734</v>
+      </c>
+      <c r="N9">
         <v>6136</v>
       </c>
-      <c r="C9">
+      <c r="O9">
         <v>553.9512613939967</v>
       </c>
-      <c r="D9">
+      <c r="P9">
         <v>5.488078343702784</v>
       </c>
-      <c r="E9">
-        <v>3634</v>
-      </c>
-      <c r="F9">
-        <v>468.6544569296232</v>
-      </c>
-      <c r="G9">
-        <v>7.839744810153734</v>
-      </c>
-      <c r="H9">
-        <v>3856</v>
-      </c>
-      <c r="I9">
-        <v>485.6727293147105</v>
-      </c>
-      <c r="J9">
-        <v>7.65668518512515</v>
-      </c>
-      <c r="K9">
+      <c r="Q9">
         <v>655</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>206.9855067389985</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>19.21023752189132</v>
-      </c>
-      <c r="N9">
-        <v>10977</v>
-      </c>
-      <c r="O9">
-        <v>607.0313006756736</v>
-      </c>
-      <c r="P9">
-        <v>3.361719852898689</v>
-      </c>
-      <c r="Q9">
-        <v>25258</v>
-      </c>
-      <c r="R9">
-        <v>877.5670914522718</v>
-      </c>
-      <c r="S9">
-        <v>2.112104820386792</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1021,58 +1021,58 @@
         <v>27</v>
       </c>
       <c r="B10">
+        <v>74977</v>
+      </c>
+      <c r="C10">
+        <v>1902.185585057357</v>
+      </c>
+      <c r="D10">
+        <v>1.542264722119531</v>
+      </c>
+      <c r="E10">
+        <v>2750</v>
+      </c>
+      <c r="F10">
+        <v>485.1432778056396</v>
+      </c>
+      <c r="G10">
+        <v>10.7243609351896</v>
+      </c>
+      <c r="H10">
+        <v>51519</v>
+      </c>
+      <c r="I10">
+        <v>1533.146437885175</v>
+      </c>
+      <c r="J10">
+        <v>1.809048920996155</v>
+      </c>
+      <c r="K10">
+        <v>9130</v>
+      </c>
+      <c r="L10">
+        <v>1039.692743073645</v>
+      </c>
+      <c r="M10">
+        <v>6.922585571289712</v>
+      </c>
+      <c r="N10">
         <v>7188</v>
       </c>
-      <c r="C10">
+      <c r="O10">
         <v>758.4246831426309</v>
       </c>
-      <c r="D10">
+      <c r="P10">
         <v>6.414140784646404</v>
       </c>
-      <c r="E10">
-        <v>9130</v>
-      </c>
-      <c r="F10">
-        <v>1039.692743073645</v>
-      </c>
-      <c r="G10">
-        <v>6.922585571289712</v>
-      </c>
-      <c r="H10">
-        <v>2750</v>
-      </c>
-      <c r="I10">
-        <v>485.1432778056396</v>
-      </c>
-      <c r="J10">
-        <v>10.7243609351896</v>
-      </c>
-      <c r="K10">
+      <c r="Q10">
         <v>4390</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>621.7185858569776</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>8.609212507799262</v>
-      </c>
-      <c r="N10">
-        <v>51519</v>
-      </c>
-      <c r="O10">
-        <v>1533.146437885175</v>
-      </c>
-      <c r="P10">
-        <v>1.809048920996155</v>
-      </c>
-      <c r="Q10">
-        <v>74977</v>
-      </c>
-      <c r="R10">
-        <v>1902.185585057357</v>
-      </c>
-      <c r="S10">
-        <v>1.542264722119531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1080,58 +1080,58 @@
         <v>28</v>
       </c>
       <c r="B11">
+        <v>75652</v>
+      </c>
+      <c r="C11">
+        <v>1752.266532237604</v>
+      </c>
+      <c r="D11">
+        <v>1.408036295645221</v>
+      </c>
+      <c r="E11">
+        <v>3596</v>
+      </c>
+      <c r="F11">
+        <v>520.6034959544547</v>
+      </c>
+      <c r="G11">
+        <v>8.800786688932565</v>
+      </c>
+      <c r="H11">
+        <v>52180</v>
+      </c>
+      <c r="I11">
+        <v>1416.482615495157</v>
+      </c>
+      <c r="J11">
+        <v>1.650217816856959</v>
+      </c>
+      <c r="K11">
+        <v>7049</v>
+      </c>
+      <c r="L11">
+        <v>916.9067564370981</v>
+      </c>
+      <c r="M11">
+        <v>7.907364526793541</v>
+      </c>
+      <c r="N11">
         <v>8763</v>
       </c>
-      <c r="C11">
+      <c r="O11">
         <v>826.8953984634333</v>
       </c>
-      <c r="D11">
+      <c r="P11">
         <v>5.7363000656146</v>
       </c>
-      <c r="E11">
-        <v>7049</v>
-      </c>
-      <c r="F11">
-        <v>916.9067564370981</v>
-      </c>
-      <c r="G11">
-        <v>7.907364526793541</v>
-      </c>
-      <c r="H11">
-        <v>3596</v>
-      </c>
-      <c r="I11">
-        <v>520.6034959544547</v>
-      </c>
-      <c r="J11">
-        <v>8.800786688932565</v>
-      </c>
-      <c r="K11">
+      <c r="Q11">
         <v>4064</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>482.7659888600273</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>7.221327885444249</v>
-      </c>
-      <c r="N11">
-        <v>52180</v>
-      </c>
-      <c r="O11">
-        <v>1416.482615495157</v>
-      </c>
-      <c r="P11">
-        <v>1.650217816856959</v>
-      </c>
-      <c r="Q11">
-        <v>75652</v>
-      </c>
-      <c r="R11">
-        <v>1752.266532237604</v>
-      </c>
-      <c r="S11">
-        <v>1.408036295645221</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1139,58 +1139,58 @@
         <v>29</v>
       </c>
       <c r="B12">
+        <v>25894</v>
+      </c>
+      <c r="C12">
+        <v>1104.818989699218</v>
+      </c>
+      <c r="D12">
+        <v>2.593737878038703</v>
+      </c>
+      <c r="E12">
+        <v>929</v>
+      </c>
+      <c r="F12">
+        <v>244.4074466950629</v>
+      </c>
+      <c r="G12">
+        <v>15.9931060751053</v>
+      </c>
+      <c r="H12">
+        <v>22037</v>
+      </c>
+      <c r="I12">
+        <v>1069.9074726349</v>
+      </c>
+      <c r="J12">
+        <v>2.951398463553629</v>
+      </c>
+      <c r="K12">
+        <v>244</v>
+      </c>
+      <c r="L12">
+        <v>169.8469899644972</v>
+      </c>
+      <c r="M12">
+        <v>42.315758125591</v>
+      </c>
+      <c r="N12">
         <v>158</v>
       </c>
-      <c r="C12">
+      <c r="O12">
         <v>169.076905578497</v>
       </c>
-      <c r="D12">
+      <c r="P12">
         <v>65.05209710226502</v>
       </c>
-      <c r="E12">
-        <v>244</v>
-      </c>
-      <c r="F12">
-        <v>169.8469899644972</v>
-      </c>
-      <c r="G12">
-        <v>42.315758125591</v>
-      </c>
-      <c r="H12">
-        <v>929</v>
-      </c>
-      <c r="I12">
-        <v>244.4074466950629</v>
-      </c>
-      <c r="J12">
-        <v>15.9931060751053</v>
-      </c>
-      <c r="K12">
+      <c r="Q12">
         <v>2526</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>385.9663197741482</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>9.288597847411797</v>
-      </c>
-      <c r="N12">
-        <v>22037</v>
-      </c>
-      <c r="O12">
-        <v>1069.9074726349</v>
-      </c>
-      <c r="P12">
-        <v>2.951398463553629</v>
-      </c>
-      <c r="Q12">
-        <v>25894</v>
-      </c>
-      <c r="R12">
-        <v>1104.818989699218</v>
-      </c>
-      <c r="S12">
-        <v>2.593737878038703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1198,58 +1198,58 @@
         <v>30</v>
       </c>
       <c r="B13">
+        <v>34334</v>
+      </c>
+      <c r="C13">
+        <v>1121.617581887873</v>
+      </c>
+      <c r="D13">
+        <v>1.985886865161127</v>
+      </c>
+      <c r="E13">
+        <v>1212</v>
+      </c>
+      <c r="F13">
+        <v>309.9612879054415</v>
+      </c>
+      <c r="G13">
+        <v>15.54672564654576</v>
+      </c>
+      <c r="H13">
+        <v>25624</v>
+      </c>
+      <c r="I13">
+        <v>981.2206683514163</v>
+      </c>
+      <c r="J13">
+        <v>2.327843929445458</v>
+      </c>
+      <c r="K13">
+        <v>3528</v>
+      </c>
+      <c r="L13">
+        <v>484.5874534075351</v>
+      </c>
+      <c r="M13">
+        <v>8.349831024535547</v>
+      </c>
+      <c r="N13">
         <v>3799</v>
       </c>
-      <c r="C13">
+      <c r="O13">
         <v>559.2253570788793</v>
       </c>
-      <c r="D13">
+      <c r="P13">
         <v>8.94852920147566</v>
       </c>
-      <c r="E13">
-        <v>3528</v>
-      </c>
-      <c r="F13">
-        <v>484.5874534075351</v>
-      </c>
-      <c r="G13">
-        <v>8.349831024535547</v>
-      </c>
-      <c r="H13">
-        <v>1212</v>
-      </c>
-      <c r="I13">
-        <v>309.9612879054415</v>
-      </c>
-      <c r="J13">
-        <v>15.54672564654576</v>
-      </c>
-      <c r="K13">
+      <c r="Q13">
         <v>171</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>170.1234845634194</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>60.47867347923687</v>
-      </c>
-      <c r="N13">
-        <v>25624</v>
-      </c>
-      <c r="O13">
-        <v>981.2206683514163</v>
-      </c>
-      <c r="P13">
-        <v>2.327843929445458</v>
-      </c>
-      <c r="Q13">
-        <v>34334</v>
-      </c>
-      <c r="R13">
-        <v>1121.617581887873</v>
-      </c>
-      <c r="S13">
-        <v>1.985886865161127</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1257,58 +1257,58 @@
         <v>31</v>
       </c>
       <c r="B14">
+        <v>27011</v>
+      </c>
+      <c r="C14">
+        <v>920.9717693827537</v>
+      </c>
+      <c r="D14">
+        <v>2.072715774993287</v>
+      </c>
+      <c r="E14">
+        <v>558</v>
+      </c>
+      <c r="F14">
+        <v>221.9369279772972</v>
+      </c>
+      <c r="G14">
+        <v>24.17850638704199</v>
+      </c>
+      <c r="H14">
+        <v>19749</v>
+      </c>
+      <c r="I14">
+        <v>762.6683420727518</v>
+      </c>
+      <c r="J14">
+        <v>2.347603278509279</v>
+      </c>
+      <c r="K14">
+        <v>2054</v>
+      </c>
+      <c r="L14">
+        <v>462.7040090597876</v>
+      </c>
+      <c r="M14">
+        <v>13.69420802644074</v>
+      </c>
+      <c r="N14">
         <v>4171</v>
       </c>
-      <c r="C14">
+      <c r="O14">
         <v>648.0084875987351</v>
       </c>
-      <c r="D14">
+      <c r="P14">
         <v>9.444404993499552</v>
       </c>
-      <c r="E14">
-        <v>2054</v>
-      </c>
-      <c r="F14">
-        <v>462.7040090597876</v>
-      </c>
-      <c r="G14">
-        <v>13.69420802644074</v>
-      </c>
-      <c r="H14">
-        <v>558</v>
-      </c>
-      <c r="I14">
-        <v>221.9369279772972</v>
-      </c>
-      <c r="J14">
-        <v>24.17850638704199</v>
-      </c>
-      <c r="K14">
+      <c r="Q14">
         <v>479</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>169.6142682677374</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>21.52588260341484</v>
-      </c>
-      <c r="N14">
-        <v>19749</v>
-      </c>
-      <c r="O14">
-        <v>762.6683420727518</v>
-      </c>
-      <c r="P14">
-        <v>2.347603278509279</v>
-      </c>
-      <c r="Q14">
-        <v>27011</v>
-      </c>
-      <c r="R14">
-        <v>920.9717693827537</v>
-      </c>
-      <c r="S14">
-        <v>2.072715774993287</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1316,58 +1316,58 @@
         <v>32</v>
       </c>
       <c r="B15">
+        <v>9570</v>
+      </c>
+      <c r="C15">
+        <v>765.2574730115349</v>
+      </c>
+      <c r="D15">
+        <v>4.861046094599923</v>
+      </c>
+      <c r="E15">
+        <v>190</v>
+      </c>
+      <c r="F15">
+        <v>125.5348557174461</v>
+      </c>
+      <c r="G15">
+        <v>40.16472747318703</v>
+      </c>
+      <c r="H15">
+        <v>7216</v>
+      </c>
+      <c r="I15">
+        <v>689.3612985945758</v>
+      </c>
+      <c r="J15">
+        <v>5.807436518936101</v>
+      </c>
+      <c r="K15">
+        <v>1003</v>
+      </c>
+      <c r="L15">
+        <v>318.9937303459113</v>
+      </c>
+      <c r="M15">
+        <v>19.33371498549405</v>
+      </c>
+      <c r="N15">
         <v>874</v>
       </c>
-      <c r="C15">
+      <c r="O15">
         <v>284.0140841578107</v>
       </c>
-      <c r="D15">
+      <c r="P15">
         <v>19.75434081210037</v>
       </c>
-      <c r="E15">
-        <v>1003</v>
-      </c>
-      <c r="F15">
-        <v>318.9937303459113</v>
-      </c>
-      <c r="G15">
-        <v>19.33371498549405</v>
-      </c>
-      <c r="H15">
-        <v>190</v>
-      </c>
-      <c r="I15">
-        <v>125.5348557174461</v>
-      </c>
-      <c r="J15">
-        <v>40.16472747318703</v>
-      </c>
-      <c r="K15">
+      <c r="Q15">
         <v>287</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>169.9087990658518</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>35.98885844886347</v>
-      </c>
-      <c r="N15">
-        <v>7216</v>
-      </c>
-      <c r="O15">
-        <v>689.3612985945758</v>
-      </c>
-      <c r="P15">
-        <v>5.807436518936101</v>
-      </c>
-      <c r="Q15">
-        <v>9570</v>
-      </c>
-      <c r="R15">
-        <v>765.2574730115349</v>
-      </c>
-      <c r="S15">
-        <v>4.861046094599923</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1375,13 +1375,13 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="C16">
-        <v>31.84336665618132</v>
+        <v>191.0340283823801</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10.10705904605194</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="I16">
-        <v>31.84336665618132</v>
+        <v>192.3564399753749</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.17702402646281</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>192.3564399753749</v>
+        <v>31.84336665618132</v>
       </c>
       <c r="P16">
-        <v>10.17702402646281</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>191.0340283823801</v>
+        <v>31.84336665618132</v>
       </c>
       <c r="S16">
-        <v>10.10705904605194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1434,58 +1434,58 @@
         <v>34</v>
       </c>
       <c r="B17">
+        <v>624409</v>
+      </c>
+      <c r="C17">
+        <v>3175</v>
+      </c>
+      <c r="D17">
+        <v>0.3091068811324523</v>
+      </c>
+      <c r="E17">
+        <v>37961</v>
+      </c>
+      <c r="F17">
+        <v>1760.392285827224</v>
+      </c>
+      <c r="G17">
+        <v>2.819070325379093</v>
+      </c>
+      <c r="H17">
+        <v>406366</v>
+      </c>
+      <c r="I17">
+        <v>3848.168525415695</v>
+      </c>
+      <c r="J17">
+        <v>0.5756663139891087</v>
+      </c>
+      <c r="K17">
+        <v>75603</v>
+      </c>
+      <c r="L17">
+        <v>2678.381040852851</v>
+      </c>
+      <c r="M17">
+        <v>2.153611842933052</v>
+      </c>
+      <c r="N17">
         <v>84876</v>
       </c>
-      <c r="C17">
+      <c r="O17">
         <v>2392.082356441768</v>
       </c>
-      <c r="D17">
+      <c r="P17">
         <v>1.713268071270191</v>
       </c>
-      <c r="E17">
-        <v>75603</v>
-      </c>
-      <c r="F17">
-        <v>2678.381040852851</v>
-      </c>
-      <c r="G17">
-        <v>2.153611842933052</v>
-      </c>
-      <c r="H17">
-        <v>37961</v>
-      </c>
-      <c r="I17">
-        <v>1760.392285827224</v>
-      </c>
-      <c r="J17">
-        <v>2.819070325379093</v>
-      </c>
-      <c r="K17">
+      <c r="Q17">
         <v>19603</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>1111.260545506768</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>3.446096646105338</v>
-      </c>
-      <c r="N17">
-        <v>406366</v>
-      </c>
-      <c r="O17">
-        <v>3848.168525415695</v>
-      </c>
-      <c r="P17">
-        <v>0.5756663139891087</v>
-      </c>
-      <c r="Q17">
-        <v>624409</v>
-      </c>
-      <c r="R17">
-        <v>3175</v>
-      </c>
-      <c r="S17">
-        <v>0.3091068811324523</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1493,58 +1493,58 @@
         <v>35</v>
       </c>
       <c r="B18">
+        <v>139647020</v>
+      </c>
+      <c r="C18">
+        <v>3504</v>
+      </c>
+      <c r="D18">
+        <v>0.001525339520607267</v>
+      </c>
+      <c r="E18">
+        <v>10911007</v>
+      </c>
+      <c r="F18">
+        <v>39117.31525807977</v>
+      </c>
+      <c r="G18">
+        <v>0.217940680940265</v>
+      </c>
+      <c r="H18">
+        <v>94432071</v>
+      </c>
+      <c r="I18">
+        <v>117778.6285240238</v>
+      </c>
+      <c r="J18">
+        <v>0.07581952795521259</v>
+      </c>
+      <c r="K18">
+        <v>12494740</v>
+      </c>
+      <c r="L18">
+        <v>42232.76538423692</v>
+      </c>
+      <c r="M18">
+        <v>0.2054737722228622</v>
+      </c>
+      <c r="N18">
         <v>13480195</v>
       </c>
-      <c r="C18">
+      <c r="O18">
         <v>29822.80821787244</v>
       </c>
-      <c r="D18">
+      <c r="P18">
         <v>0.1344889053741047</v>
       </c>
-      <c r="E18">
-        <v>12494740</v>
-      </c>
-      <c r="F18">
-        <v>42232.76538423692</v>
-      </c>
-      <c r="G18">
-        <v>0.2054737722228622</v>
-      </c>
-      <c r="H18">
-        <v>10911007</v>
-      </c>
-      <c r="I18">
-        <v>39117.31525807977</v>
-      </c>
-      <c r="J18">
-        <v>0.217940680940265</v>
-      </c>
-      <c r="K18">
+      <c r="Q18">
         <v>8329007</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>46744.17627897619</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>0.3411680723956225</v>
-      </c>
-      <c r="N18">
-        <v>94432071</v>
-      </c>
-      <c r="O18">
-        <v>117778.6285240238</v>
-      </c>
-      <c r="P18">
-        <v>0.07581952795521259</v>
-      </c>
-      <c r="Q18">
-        <v>139647020</v>
-      </c>
-      <c r="R18">
-        <v>3504</v>
-      </c>
-      <c r="S18">
-        <v>0.001525339520607267</v>
       </c>
     </row>
   </sheetData>
